--- a/tests/050_simple.xlsx
+++ b/tests/050_simple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/rdflib/VocExcel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/rdflib/VocExcel/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277F59A-54E4-964F-8AAB-9BC2322DA457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F70062-DFC4-EA46-82A4-06B2E83C9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="36700" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="36700" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>Version:</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Collections</t>
   </si>
   <si>
-    <t>Preferred Label</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Prefix</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
   </si>
   <si>
     <t>Optional: an IRI if you have one, else just a name</t>
-  </si>
-  <si>
-    <t>Collection IRI</t>
   </si>
   <si>
     <t>0.5.0</t>
@@ -595,9 +586,6 @@
     <t>An optional statement about the origin of this Concept</t>
   </si>
   <si>
-    <t>Soure</t>
-  </si>
-  <si>
     <t>An optional hyperlink to source information</t>
   </si>
   <si>
@@ -605,10 +593,6 @@
   </si>
   <si>
     <t>The Concept IRIs of any Concepts that are children of this one. The IRIs must be present in Column A.
-Separated by a newline or comma.</t>
-  </si>
-  <si>
-    <t>Alternate labels.
 Separated by a newline or comma.</t>
   </si>
   <si>
@@ -725,9 +709,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Members IRIs</t>
-  </si>
-  <si>
     <t>Definition/description of this vocabulary</t>
   </si>
   <si>
@@ -750,6 +731,95 @@
   </si>
   <si>
     <t>IRI for this vocabulary. See the Documentation Sheet's IRI section</t>
+  </si>
+  <si>
+    <t>http://example.com/chickens</t>
+  </si>
+  <si>
+    <t>Chickens Vocabulary</t>
+  </si>
+  <si>
+    <t>A demonstration vocabulary of chicken breeds</t>
+  </si>
+  <si>
+    <t>Nicholas Car</t>
+  </si>
+  <si>
+    <t>https://kurrawong.net</t>
+  </si>
+  <si>
+    <t>This vocabulary was made up in 2022 for VocExcel demonstrations</t>
+  </si>
+  <si>
+    <t>ex:rhode-island-red</t>
+  </si>
+  <si>
+    <t>Rhode Island Red</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Rhode_Island_Red </t>
+  </si>
+  <si>
+    <t>Taken from Wikipedia</t>
+  </si>
+  <si>
+    <t>Concept IRI*</t>
+  </si>
+  <si>
+    <t>Alternate labels, optional.
+Separated by a newline or comma.</t>
+  </si>
+  <si>
+    <t>ex:silkie</t>
+  </si>
+  <si>
+    <t>Silkie</t>
+  </si>
+  <si>
+    <t>The Silkie (also known as the Silky or Chinese silk chicken) is a breed of chicken named for its atypically fluffy plumage, which is said to feel like silk and satin.</t>
+  </si>
+  <si>
+    <t>Silky, Chinese silk chicken</t>
+  </si>
+  <si>
+    <t>ex:bantam</t>
+  </si>
+  <si>
+    <t>Bantam</t>
+  </si>
+  <si>
+    <t>A bantam is any small variety of fowl, usually of chicken or duck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Bantam_(poultry) </t>
+  </si>
+  <si>
+    <t>Collection IRI*</t>
+  </si>
+  <si>
+    <t>Members IRIs*</t>
+  </si>
+  <si>
+    <t>ex:small-chickens</t>
+  </si>
+  <si>
+    <t>Small Chickens</t>
+  </si>
+  <si>
+    <t>Smaller varieties of chicken</t>
+  </si>
+  <si>
+    <t>ex:bantam
+ex:silkie</t>
+  </si>
+  <si>
+    <t>Just made up</t>
+  </si>
+  <si>
+    <t>The Rhode Island Red is an American breed of domestic chicken. It is the state bird of Rhode Island.</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,25 +1126,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1109,14 +1166,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1146,9 +1197,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1188,12 +1236,6 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1208,12 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1232,16 +1268,43 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1491,147 +1554,147 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="28"/>
-    <col min="2" max="2" width="59.83203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="28"/>
-    <col min="4" max="4" width="24" style="30" customWidth="1"/>
-    <col min="5" max="9" width="12.5" style="28"/>
-    <col min="10" max="10" width="21.33203125" style="28" customWidth="1"/>
-    <col min="11" max="24" width="12.5" style="28"/>
-    <col min="25" max="25" width="12.5" style="28" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="28" customWidth="1"/>
-    <col min="27" max="16384" width="12.5" style="28"/>
+    <col min="1" max="1" width="12.5" style="22"/>
+    <col min="2" max="2" width="59.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="22"/>
+    <col min="4" max="4" width="24" style="23" customWidth="1"/>
+    <col min="5" max="9" width="12.5" style="22"/>
+    <col min="10" max="10" width="21.33203125" style="22" customWidth="1"/>
+    <col min="11" max="24" width="12.5" style="22"/>
+    <col min="25" max="25" width="12.5" style="22" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="22" customWidth="1"/>
+    <col min="27" max="16384" width="12.5" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="K4" s="26"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:11" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="31" t="s">
-        <v>36</v>
+      <c r="B8" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="B11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>35</v>
+      <c r="E11" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D12" s="28"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="B13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="34" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="B15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="D21" s="28"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:5" ht="13" x14ac:dyDescent="0.15"/>
@@ -2639,123 +2702,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27" style="36" customWidth="1"/>
-    <col min="2" max="2" width="108.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="60" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="27" style="29" customWidth="1"/>
+    <col min="2" max="2" width="108.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="60" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="63" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="209" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="364" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="211" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="97" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" ht="78" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="38" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="38" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="209" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="364" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="211" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="97" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="78" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" ht="38" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="21"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" ht="38" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2773,8 +2836,8 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2786,131 +2849,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44895</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44895</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="64" t="s">
+      <c r="C10" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="64" t="s">
+      <c r="D11" s="52" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
@@ -5878,138 +5961,190 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{029BFF9F-F6BF-9148-B31A-7395F8F73151}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{B363C3A5-3E65-654C-88C8-C32AC2E972FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="42"/>
+    <col min="1" max="1" width="49.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="57" t="s">
+      <c r="A2" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="133" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="57" t="s">
+      <c r="D4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="98" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="133" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="F4" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="95" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="C5" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="95" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>81</v>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="76" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38" x14ac:dyDescent="0.15">
+      <c r="A9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6021,6 +6156,8 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{192F95BB-E747-EB45-A866-24526879F62F}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{1D10ECC8-6E41-3B48-B221-78DFDF8995F6}"/>
     <hyperlink ref="E4" r:id="rId4" display="http://example.com/atmospheric-science" xr:uid="{02913027-BA0A-DE4B-9454-BB423FD4D888}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{E9E763D9-BD2A-0143-B9EB-2180256A426C}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{0AA8D8A9-CC46-5B44-B4A8-1DB4751DE0C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6040,84 +6177,84 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="25.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="25.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" s="39" customFormat="1" ht="38" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:27" s="32" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="F2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="67" customFormat="1" ht="38" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
+      <c r="G2" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="55" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
     </row>
     <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I4" s="3"/>
@@ -6157,42 +6294,42 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="47.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="45.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="6" customWidth="1"/>
     <col min="6" max="26" width="12.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:26" s="8" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="60" t="s">
+      <c r="A2" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5"/>
@@ -6217,7 +6354,22 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="38" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6240,172 +6392,173 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="70"/>
+    </row>
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="70"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="70"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="70"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="70"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
@@ -7634,67 +7787,67 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.5" style="28"/>
+    <col min="1" max="1" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.5" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="A1" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A5" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
